--- a/data/chicago_strategy_meeting_scores.xlsx
+++ b/data/chicago_strategy_meeting_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jbecker\lgimapy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA1755B-86D0-49BA-B30F-64464AFDE6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE17E52-3BB7-4665-91F0-C313BE0050B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="6885" windowWidth="43200" windowHeight="23535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="5055" windowWidth="43200" windowHeight="23535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 Months" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA27" sqref="AA27"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,6 +1099,9 @@
       <c r="Z7">
         <v>-1</v>
       </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2729,7 +2732,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3238,7 +3241,7 @@
         <v>-2</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -3323,6 +3326,9 @@
       <c r="Z7">
         <v>-1</v>
       </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4950,17 +4956,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AW13"/>
+  <dimension ref="A1:AX13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW14" sqref="AW14"/>
+      <selection pane="topRight" activeCell="AZ21" sqref="AZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,7 +4977,7 @@
     <col min="49" max="49" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43070</v>
       </c>
@@ -5116,8 +5122,11 @@
       <c r="AW1" s="1">
         <v>44586</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX1" s="1">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5265,8 +5274,11 @@
       <c r="AW2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5414,8 +5426,11 @@
       <c r="AW3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5563,8 +5578,11 @@
       <c r="AW4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5712,8 +5730,11 @@
       <c r="AW5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5861,8 +5882,11 @@
       <c r="AW6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -6010,8 +6034,11 @@
       <c r="AW7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6160,8 +6187,11 @@
       <c r="AW8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6309,8 +6339,11 @@
       <c r="AW9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -6380,8 +6413,11 @@
       <c r="AW10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -6469,8 +6505,11 @@
       <c r="AW11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -6558,8 +6597,11 @@
       <c r="AW12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6611,9 +6653,12 @@
       <c r="AW13">
         <v>0</v>
       </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/chicago_strategy_meeting_scores.xlsx
+++ b/data/chicago_strategy_meeting_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jbecker\lgimapy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE17E52-3BB7-4665-91F0-C313BE0050B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E903243-D580-46AF-8C28-5E7F62DB57B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="5055" windowWidth="43200" windowHeight="23535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 Months" sheetId="1" r:id="rId1"/>
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X37" sqref="X37"/>
+      <selection pane="topRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
     <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43749</v>
       </c>
@@ -604,8 +604,11 @@
       <c r="AA1" s="1">
         <v>44628</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -687,8 +690,11 @@
       <c r="AA2">
         <v>-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -770,8 +776,11 @@
       <c r="AA3">
         <v>-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -853,8 +862,11 @@
       <c r="AA4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -936,8 +948,11 @@
       <c r="AA5">
         <v>-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1019,8 +1034,11 @@
       <c r="AA6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1102,8 +1120,11 @@
       <c r="AA7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1185,8 +1206,11 @@
       <c r="AA8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1217,8 +1241,11 @@
       <c r="AA9">
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1273,8 +1300,11 @@
       <c r="AA10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="AA11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1439,8 +1472,11 @@
       <c r="AA12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1522,8 +1558,11 @@
       <c r="AA13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1605,8 +1644,11 @@
       <c r="AA14">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1688,8 +1730,11 @@
       <c r="AA15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1771,8 +1816,11 @@
       <c r="AA16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1851,8 +1899,11 @@
       <c r="AA17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1931,8 +1982,11 @@
       <c r="AA18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2014,8 +2068,11 @@
       <c r="AA19">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2095,7 +2152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2174,8 +2231,11 @@
       <c r="AA21">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2257,8 +2317,11 @@
       <c r="AA22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2340,8 +2403,11 @@
       <c r="AA23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2423,8 +2489,11 @@
       <c r="AA24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2506,8 +2575,11 @@
       <c r="AA25">
         <v>-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2586,8 +2658,11 @@
       <c r="AA26">
         <v>-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2631,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2675,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2689,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2738,11 +2813,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA27" sqref="AA27"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,7 +2827,7 @@
     <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43749</v>
       </c>
@@ -2831,8 +2906,11 @@
       <c r="AA1" s="1">
         <v>44628</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2914,8 +2992,11 @@
       <c r="AA2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2997,8 +3078,11 @@
       <c r="AA3">
         <v>-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3080,8 +3164,11 @@
       <c r="AA4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3163,8 +3250,11 @@
       <c r="AA5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3246,8 +3336,11 @@
       <c r="AA6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3329,8 +3422,11 @@
       <c r="AA7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3412,8 +3508,11 @@
       <c r="AA8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3444,8 +3543,11 @@
       <c r="AA9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3500,8 +3602,11 @@
       <c r="AA10">
         <v>-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3583,8 +3688,11 @@
       <c r="AA11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3666,8 +3774,11 @@
       <c r="AA12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3749,8 +3860,11 @@
       <c r="AA13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3832,8 +3946,11 @@
       <c r="AA14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3915,8 +4032,11 @@
       <c r="AA15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3998,8 +4118,11 @@
       <c r="AA16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4078,8 +4201,11 @@
       <c r="AA17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4158,8 +4284,11 @@
       <c r="AA18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4241,8 +4370,11 @@
       <c r="AA19">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -4322,7 +4454,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4401,8 +4533,11 @@
       <c r="AA21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4484,8 +4619,11 @@
       <c r="AA22">
         <v>-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4567,8 +4705,11 @@
       <c r="AA23">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -4650,8 +4791,11 @@
       <c r="AA24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4733,8 +4877,11 @@
       <c r="AA25">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -4813,8 +4960,11 @@
       <c r="AA26">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4858,7 +5008,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4899,7 +5049,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4913,7 +5063,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -4962,11 +5112,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AX13"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ21" sqref="AZ21"/>
+      <selection pane="topRight" activeCell="AY14" sqref="AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4977,7 +5127,7 @@
     <col min="49" max="49" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43070</v>
       </c>
@@ -5125,8 +5275,11 @@
       <c r="AX1" s="1">
         <v>44628</v>
       </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY1" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5277,8 +5430,11 @@
       <c r="AX2">
         <v>-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5429,8 +5585,11 @@
       <c r="AX3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5581,8 +5740,11 @@
       <c r="AX4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5733,8 +5895,11 @@
       <c r="AX5">
         <v>-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5885,8 +6050,11 @@
       <c r="AX6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -6037,8 +6205,11 @@
       <c r="AX7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6190,8 +6361,11 @@
       <c r="AX8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6342,8 +6516,11 @@
       <c r="AX9">
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -6416,8 +6593,11 @@
       <c r="AX10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -6508,8 +6688,11 @@
       <c r="AX11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -6600,8 +6783,11 @@
       <c r="AX12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6655,6 +6841,9 @@
       </c>
       <c r="AX13">
         <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/data/chicago_strategy_meeting_scores.xlsx
+++ b/data/chicago_strategy_meeting_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jbecker\lgimapy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E903243-D580-46AF-8C28-5E7F62DB57B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40DF470-69FB-4743-B42F-4ED052E1713D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="5805" windowWidth="28395" windowHeight="16590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 Months" sheetId="1" r:id="rId1"/>
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="topRight" activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,9 +523,10 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43749</v>
       </c>
@@ -607,8 +608,11 @@
       <c r="AB1" s="1">
         <v>44656</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -693,8 +697,11 @@
       <c r="AB2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -779,8 +786,11 @@
       <c r="AB3">
         <v>-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -865,8 +875,11 @@
       <c r="AB4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -951,8 +964,11 @@
       <c r="AB5">
         <v>-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1037,8 +1053,11 @@
       <c r="AB6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1123,8 +1142,11 @@
       <c r="AB7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1209,8 +1231,11 @@
       <c r="AB8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1244,22 +1269,52 @@
       <c r="AB9">
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1271,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U10">
         <v>-1</v>
@@ -1303,19 +1358,22 @@
       <c r="AB10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>-1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1324,37 +1382,37 @@
         <v>-1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R11">
         <v>-1</v>
@@ -1378,7 +1436,7 @@
         <v>-2</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>-1</v>
@@ -1389,19 +1447,22 @@
       <c r="AB11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>-1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1410,19 +1471,19 @@
         <v>-1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1431,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1455,16 +1516,16 @@
         <v>-1</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
@@ -1475,25 +1536,28 @@
       <c r="AB12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>-1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1505,16 +1569,16 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1523,7 +1587,7 @@
         <v>-1</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>-1</v>
@@ -1535,13 +1599,13 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1553,7 +1617,7 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1561,25 +1625,28 @@
       <c r="AB13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>-1</v>
       </c>
       <c r="F14">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1588,16 +1655,16 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1609,22 +1676,22 @@
         <v>-1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q14">
         <v>-1</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V14">
         <v>-1</v>
@@ -1647,13 +1714,16 @@
       <c r="AB14">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1683,22 +1753,22 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1719,27 +1789,30 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1748,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1769,17 +1842,14 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -1793,7 +1863,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>-1</v>
@@ -1805,555 +1875,576 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>-1</v>
+      </c>
+      <c r="S18">
+        <v>-1</v>
+      </c>
+      <c r="T18">
+        <v>-1</v>
+      </c>
+      <c r="U18">
+        <v>-1</v>
+      </c>
+      <c r="V18">
+        <v>-1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>-1</v>
+      </c>
+      <c r="T19">
+        <v>-1</v>
+      </c>
+      <c r="U19">
+        <v>-1</v>
+      </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+      <c r="G20">
+        <v>-2</v>
+      </c>
+      <c r="H20">
+        <v>-2</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>-1</v>
+      </c>
+      <c r="T20">
+        <v>-1</v>
+      </c>
+      <c r="U20">
+        <v>-1</v>
+      </c>
+      <c r="V20">
+        <v>-1</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>-1</v>
+      </c>
+      <c r="Q21">
+        <v>-1</v>
+      </c>
+      <c r="R21">
+        <v>-1</v>
+      </c>
+      <c r="S21">
+        <v>-1</v>
+      </c>
+      <c r="T21">
+        <v>-1</v>
+      </c>
+      <c r="U21">
+        <v>-1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>-1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>-1</v>
+      </c>
+      <c r="U22">
+        <v>-1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-2</v>
+      </c>
+      <c r="F23">
+        <v>-2</v>
+      </c>
+      <c r="G23">
         <v>2</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>-1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>-1</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>-1</v>
-      </c>
-      <c r="V17">
-        <v>-1</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>-1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>-1</v>
-      </c>
-      <c r="S19">
-        <v>-1</v>
-      </c>
-      <c r="T19">
-        <v>-1</v>
-      </c>
-      <c r="U19">
-        <v>-1</v>
-      </c>
-      <c r="V19">
-        <v>-1</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>-1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>-1</v>
-      </c>
-      <c r="R20">
-        <v>-1</v>
-      </c>
-      <c r="S20">
-        <v>-1</v>
-      </c>
-      <c r="T20">
-        <v>-1</v>
-      </c>
-      <c r="U20">
-        <v>-1</v>
-      </c>
-      <c r="V20">
-        <v>-1</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>-1</v>
-      </c>
-      <c r="F21">
-        <v>-1</v>
-      </c>
-      <c r="G21">
-        <v>-2</v>
-      </c>
-      <c r="H21">
-        <v>-2</v>
-      </c>
-      <c r="I21">
-        <v>-1</v>
-      </c>
-      <c r="J21">
-        <v>-1</v>
-      </c>
-      <c r="K21">
-        <v>-1</v>
-      </c>
-      <c r="L21">
-        <v>-1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>-1</v>
-      </c>
-      <c r="T21">
-        <v>-1</v>
-      </c>
-      <c r="U21">
-        <v>-1</v>
-      </c>
-      <c r="V21">
-        <v>-1</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>-1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>-1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>-1</v>
-      </c>
-      <c r="Q22">
-        <v>-1</v>
-      </c>
-      <c r="R22">
-        <v>-1</v>
-      </c>
-      <c r="S22">
-        <v>-1</v>
-      </c>
-      <c r="T22">
-        <v>-1</v>
-      </c>
-      <c r="U22">
-        <v>-1</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>-1</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2362,22 +2453,22 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="T23">
         <v>-1</v>
@@ -2386,45 +2477,48 @@
         <v>-1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2448,223 +2542,187 @@
         <v>1</v>
       </c>
       <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>-1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>-1</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>-2</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>2</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>-2</v>
-      </c>
-      <c r="S24">
-        <v>-2</v>
-      </c>
-      <c r="T24">
-        <v>-1</v>
-      </c>
-      <c r="U24">
-        <v>-1</v>
-      </c>
-      <c r="V24">
-        <v>-1</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-2</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>-1</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>-1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>-1</v>
-      </c>
-      <c r="G25">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>-1</v>
+      </c>
+      <c r="S25">
+        <v>-2</v>
+      </c>
+      <c r="T25">
+        <v>-1</v>
+      </c>
+      <c r="U25">
+        <v>-1</v>
+      </c>
+      <c r="V25">
+        <v>-1</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
+        <v>-2</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
+        <v>-2</v>
+      </c>
+      <c r="AB25">
+        <v>-2</v>
+      </c>
+      <c r="AC25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>-1</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>-1</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>-1</v>
-      </c>
-      <c r="AA25">
-        <v>-2</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>-1</v>
-      </c>
-      <c r="F26">
-        <v>-1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>2</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>-1</v>
-      </c>
-      <c r="S26">
-        <v>-2</v>
-      </c>
-      <c r="T26">
-        <v>-1</v>
-      </c>
-      <c r="U26">
-        <v>-1</v>
-      </c>
-      <c r="V26">
-        <v>-1</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>-2</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>-1</v>
-      </c>
-      <c r="AA26">
-        <v>-2</v>
-      </c>
-      <c r="AB26">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2679,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2688,88 +2746,85 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>-1</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>-1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>-1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2778,31 +2833,49 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-2</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2813,11 +2886,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB16" sqref="AB16"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,9 +2898,10 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43749</v>
       </c>
@@ -2909,8 +2983,11 @@
       <c r="AB1" s="1">
         <v>44656</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2995,8 +3072,11 @@
       <c r="AB2">
         <v>-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3081,8 +3161,11 @@
       <c r="AB3">
         <v>-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3167,8 +3250,11 @@
       <c r="AB4">
         <v>-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3253,8 +3339,11 @@
       <c r="AB5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3339,8 +3428,11 @@
       <c r="AB6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3425,8 +3517,11 @@
       <c r="AB7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3511,8 +3606,11 @@
       <c r="AB8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3546,1562 +3644,1610 @@
       <c r="AB9">
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10">
+        <v>-1</v>
+      </c>
+      <c r="T10">
+        <v>-1</v>
+      </c>
+      <c r="U10">
+        <v>-1</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>-2</v>
+      </c>
+      <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-2</v>
+      </c>
+      <c r="AC10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+      <c r="R11">
+        <v>-2</v>
+      </c>
+      <c r="S11">
+        <v>-2</v>
+      </c>
+      <c r="T11">
+        <v>-2</v>
+      </c>
+      <c r="U11">
+        <v>-2</v>
+      </c>
+      <c r="V11">
+        <v>-2</v>
+      </c>
+      <c r="W11">
+        <v>-2</v>
+      </c>
+      <c r="X11">
+        <v>-2</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
+        <v>-2</v>
+      </c>
+      <c r="AC11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>-2</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12">
+        <v>-1</v>
+      </c>
+      <c r="T12">
+        <v>-1</v>
+      </c>
+      <c r="U12">
+        <v>-1</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>-1</v>
+      </c>
+      <c r="S13">
+        <v>-1</v>
+      </c>
+      <c r="T13">
+        <v>-1</v>
+      </c>
+      <c r="U13">
+        <v>-1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>-1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>-2</v>
+      </c>
+      <c r="S14">
+        <v>-2</v>
+      </c>
+      <c r="T14">
+        <v>-2</v>
+      </c>
+      <c r="U14">
+        <v>-2</v>
+      </c>
+      <c r="V14">
+        <v>-1</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-2</v>
+      </c>
+      <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
+        <v>-2</v>
+      </c>
+      <c r="AC14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
+        <v>-1</v>
+      </c>
+      <c r="S15">
+        <v>-1</v>
+      </c>
+      <c r="T15">
+        <v>-1</v>
+      </c>
+      <c r="U15">
+        <v>-1</v>
+      </c>
+      <c r="V15">
+        <v>-2</v>
+      </c>
+      <c r="W15">
+        <v>-2</v>
+      </c>
+      <c r="X15">
+        <v>-2</v>
+      </c>
+      <c r="Y15">
+        <v>-2</v>
+      </c>
+      <c r="Z15">
+        <v>-2</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>-2</v>
+      </c>
+      <c r="AC15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>-1</v>
+      </c>
+      <c r="S16">
+        <v>-1</v>
+      </c>
+      <c r="T16">
+        <v>-1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>-1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>-1</v>
+      </c>
+      <c r="T18">
+        <v>-1</v>
+      </c>
+      <c r="U18">
+        <v>-1</v>
+      </c>
+      <c r="V18">
+        <v>-1</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>-1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>-1</v>
+      </c>
+      <c r="T19">
+        <v>-1</v>
+      </c>
+      <c r="U19">
+        <v>-1</v>
+      </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-2</v>
+      </c>
+      <c r="Z19">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+      <c r="N21">
+        <v>-1</v>
+      </c>
+      <c r="O21">
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>-1</v>
+      </c>
+      <c r="R21">
+        <v>-1</v>
+      </c>
+      <c r="S21">
+        <v>-1</v>
+      </c>
+      <c r="T21">
+        <v>-1</v>
+      </c>
+      <c r="U21">
+        <v>-1</v>
+      </c>
+      <c r="V21">
+        <v>-1</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>-2</v>
+      </c>
+      <c r="AA21">
+        <v>-2</v>
+      </c>
+      <c r="AB21">
+        <v>-2</v>
+      </c>
+      <c r="AC21">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>-1</v>
+      </c>
+      <c r="R22">
+        <v>-1</v>
+      </c>
+      <c r="S22">
+        <v>-1</v>
+      </c>
+      <c r="T22">
+        <v>-1</v>
+      </c>
+      <c r="U22">
+        <v>-1</v>
+      </c>
+      <c r="V22">
+        <v>-1</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>-1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>-1</v>
+      </c>
+      <c r="S23">
+        <v>-1</v>
+      </c>
+      <c r="T23">
+        <v>-1</v>
+      </c>
+      <c r="U23">
+        <v>-2</v>
+      </c>
+      <c r="V23">
+        <v>-2</v>
+      </c>
+      <c r="W23">
+        <v>-2</v>
+      </c>
+      <c r="X23">
+        <v>-2</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>-1</v>
+      </c>
+      <c r="S24">
+        <v>-1</v>
+      </c>
+      <c r="T24">
+        <v>-1</v>
+      </c>
+      <c r="U24">
+        <v>-1</v>
+      </c>
+      <c r="V24">
+        <v>-1</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>-1</v>
+      </c>
+      <c r="S25">
+        <v>-1</v>
+      </c>
+      <c r="T25">
+        <v>-1</v>
+      </c>
+      <c r="U25">
+        <v>-1</v>
+      </c>
+      <c r="V25">
+        <v>-2</v>
+      </c>
+      <c r="W25">
+        <v>-2</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>-2</v>
+      </c>
+      <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>-2</v>
+      </c>
+      <c r="AC25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>-2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>-2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>-1</v>
-      </c>
-      <c r="S10">
-        <v>-1</v>
-      </c>
-      <c r="T10">
-        <v>-1</v>
-      </c>
-      <c r="U10">
-        <v>-1</v>
-      </c>
-      <c r="V10">
-        <v>-1</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>-1</v>
-      </c>
-      <c r="AA10">
-        <v>-2</v>
-      </c>
-      <c r="AB10">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>-1</v>
-      </c>
-      <c r="Q11">
-        <v>-1</v>
-      </c>
-      <c r="R11">
-        <v>-1</v>
-      </c>
-      <c r="S11">
-        <v>-1</v>
-      </c>
-      <c r="T11">
-        <v>-1</v>
-      </c>
-      <c r="U11">
-        <v>-1</v>
-      </c>
-      <c r="V11">
-        <v>-1</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-2</v>
-      </c>
-      <c r="Z11">
-        <v>-1</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>-1</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>-1</v>
-      </c>
-      <c r="R12">
-        <v>-2</v>
-      </c>
-      <c r="S12">
-        <v>-2</v>
-      </c>
-      <c r="T12">
-        <v>-2</v>
-      </c>
-      <c r="U12">
-        <v>-2</v>
-      </c>
-      <c r="V12">
-        <v>-2</v>
-      </c>
-      <c r="W12">
-        <v>-2</v>
-      </c>
-      <c r="X12">
-        <v>-2</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-      <c r="E13">
-        <v>-1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>-2</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>-1</v>
-      </c>
-      <c r="S13">
-        <v>-1</v>
-      </c>
-      <c r="T13">
-        <v>-1</v>
-      </c>
-      <c r="U13">
-        <v>-1</v>
-      </c>
-      <c r="V13">
-        <v>-1</v>
-      </c>
-      <c r="W13">
-        <v>-1</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14">
-        <v>-1</v>
-      </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
-      <c r="E14">
-        <v>-1</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>-1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>-1</v>
-      </c>
-      <c r="P14">
-        <v>-1</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>-1</v>
-      </c>
-      <c r="S14">
-        <v>-1</v>
-      </c>
-      <c r="T14">
-        <v>-1</v>
-      </c>
-      <c r="U14">
-        <v>-1</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>-1</v>
-      </c>
-      <c r="C15">
-        <v>-1</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15">
-        <v>-1</v>
-      </c>
-      <c r="F15">
-        <v>-1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>-1</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>-1</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>-2</v>
-      </c>
-      <c r="S15">
-        <v>-2</v>
-      </c>
-      <c r="T15">
-        <v>-2</v>
-      </c>
-      <c r="U15">
-        <v>-2</v>
-      </c>
-      <c r="V15">
-        <v>-1</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-2</v>
-      </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>-1</v>
-      </c>
-      <c r="C16">
-        <v>-1</v>
-      </c>
-      <c r="D16">
-        <v>-1</v>
-      </c>
-      <c r="E16">
-        <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>-1</v>
-      </c>
-      <c r="R16">
-        <v>-1</v>
-      </c>
-      <c r="S16">
-        <v>-1</v>
-      </c>
-      <c r="T16">
-        <v>-1</v>
-      </c>
-      <c r="U16">
-        <v>-1</v>
-      </c>
-      <c r="V16">
-        <v>-2</v>
-      </c>
-      <c r="W16">
-        <v>-2</v>
-      </c>
-      <c r="X16">
-        <v>-2</v>
-      </c>
-      <c r="Y16">
-        <v>-2</v>
-      </c>
-      <c r="Z16">
-        <v>-2</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>-1</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <v>-1</v>
-      </c>
-      <c r="E17">
-        <v>-1</v>
-      </c>
-      <c r="F17">
-        <v>-1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>-1</v>
-      </c>
-      <c r="S17">
-        <v>-1</v>
-      </c>
-      <c r="T17">
-        <v>-1</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>-1</v>
-      </c>
-      <c r="C19">
-        <v>-1</v>
-      </c>
-      <c r="D19">
-        <v>-1</v>
-      </c>
-      <c r="E19">
-        <v>-1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>-1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>-1</v>
-      </c>
-      <c r="T19">
-        <v>-1</v>
-      </c>
-      <c r="U19">
-        <v>-1</v>
-      </c>
-      <c r="V19">
-        <v>-1</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>-1</v>
-      </c>
-      <c r="C20">
-        <v>-1</v>
-      </c>
-      <c r="D20">
-        <v>-1</v>
-      </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>-1</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>-1</v>
-      </c>
-      <c r="S20">
-        <v>-1</v>
-      </c>
-      <c r="T20">
-        <v>-1</v>
-      </c>
-      <c r="U20">
-        <v>-1</v>
-      </c>
-      <c r="V20">
-        <v>-1</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-2</v>
-      </c>
-      <c r="Z20">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>-1</v>
-      </c>
-      <c r="E22">
-        <v>-1</v>
-      </c>
-      <c r="F22">
-        <v>-1</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-      <c r="H22">
-        <v>-1</v>
-      </c>
-      <c r="I22">
-        <v>-1</v>
-      </c>
-      <c r="J22">
-        <v>-1</v>
-      </c>
-      <c r="K22">
-        <v>-1</v>
-      </c>
-      <c r="L22">
-        <v>-1</v>
-      </c>
-      <c r="M22">
-        <v>-1</v>
-      </c>
-      <c r="N22">
-        <v>-1</v>
-      </c>
-      <c r="O22">
-        <v>-1</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>-1</v>
-      </c>
-      <c r="R22">
-        <v>-1</v>
-      </c>
-      <c r="S22">
-        <v>-1</v>
-      </c>
-      <c r="T22">
-        <v>-1</v>
-      </c>
-      <c r="U22">
-        <v>-1</v>
-      </c>
-      <c r="V22">
-        <v>-1</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>-2</v>
-      </c>
-      <c r="AA22">
-        <v>-2</v>
-      </c>
-      <c r="AB22">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>-1</v>
-      </c>
-      <c r="R23">
-        <v>-1</v>
-      </c>
-      <c r="S23">
-        <v>-1</v>
-      </c>
-      <c r="T23">
-        <v>-1</v>
-      </c>
-      <c r="U23">
-        <v>-1</v>
-      </c>
-      <c r="V23">
-        <v>-1</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>-1</v>
-      </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
-      <c r="D24">
-        <v>-1</v>
-      </c>
-      <c r="E24">
-        <v>-1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>-1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>-1</v>
-      </c>
-      <c r="S24">
-        <v>-1</v>
-      </c>
-      <c r="T24">
-        <v>-1</v>
-      </c>
-      <c r="U24">
-        <v>-2</v>
-      </c>
-      <c r="V24">
-        <v>-2</v>
-      </c>
-      <c r="W24">
-        <v>-2</v>
-      </c>
-      <c r="X24">
-        <v>-2</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>-1</v>
-      </c>
-      <c r="AA24">
-        <v>1</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>-1</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-      <c r="H25">
-        <v>-1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>-1</v>
-      </c>
-      <c r="S25">
-        <v>-1</v>
-      </c>
-      <c r="T25">
-        <v>-1</v>
-      </c>
-      <c r="U25">
-        <v>-1</v>
-      </c>
-      <c r="V25">
-        <v>-1</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>-1</v>
-      </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26">
-        <v>-1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>-1</v>
-      </c>
-      <c r="S26">
-        <v>-1</v>
-      </c>
-      <c r="T26">
-        <v>-1</v>
-      </c>
-      <c r="U26">
-        <v>-1</v>
-      </c>
-      <c r="V26">
-        <v>-2</v>
-      </c>
-      <c r="W26">
-        <v>-2</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-2</v>
-      </c>
-      <c r="Z26">
-        <v>-1</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>-2</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
-      <c r="P28">
-        <v>-1</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>-2</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>-1</v>
-      </c>
-      <c r="C30">
-        <v>-1</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
+        <v>-2</v>
+      </c>
+      <c r="AB31">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -5112,11 +5258,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY14" sqref="AY14"/>
+      <selection pane="topRight" activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5125,9 +5271,10 @@
     <col min="2" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43070</v>
       </c>
@@ -5278,8 +5425,11 @@
       <c r="AY1" s="1">
         <v>44656</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ1" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5433,8 +5583,11 @@
       <c r="AY2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5588,8 +5741,11 @@
       <c r="AY3">
         <v>-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5743,8 +5899,11 @@
       <c r="AY4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5898,8 +6057,11 @@
       <c r="AY5">
         <v>-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -6053,8 +6215,11 @@
       <c r="AY6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -6208,8 +6373,11 @@
       <c r="AY7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6364,8 +6532,11 @@
       <c r="AY8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6519,8 +6690,11 @@
       <c r="AY9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -6596,8 +6770,11 @@
       <c r="AY10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -6691,8 +6868,11 @@
       <c r="AY11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -6786,8 +6966,11 @@
       <c r="AY12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6844,6 +7027,9 @@
       </c>
       <c r="AY13">
         <v>-1</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/chicago_strategy_meeting_scores.xlsx
+++ b/data/chicago_strategy_meeting_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jbecker\lgimapy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40DF470-69FB-4743-B42F-4ED052E1713D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC64B19-E4F1-4CC3-B391-C3243A9054C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="5805" windowWidth="28395" windowHeight="16590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39825" yWindow="2595" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 Months" sheetId="1" r:id="rId1"/>
@@ -511,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC25" sqref="AC25"/>
+      <selection pane="topRight" activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,10 +523,10 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43749</v>
       </c>
@@ -611,8 +611,11 @@
       <c r="AC1" s="1">
         <v>44691</v>
       </c>
+      <c r="AD1" s="1">
+        <v>44726</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -700,8 +703,11 @@
       <c r="AC2">
         <v>-1</v>
       </c>
+      <c r="AD2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -789,8 +795,11 @@
       <c r="AC3">
         <v>-1</v>
       </c>
+      <c r="AD3">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="AC4">
         <v>-1</v>
       </c>
+      <c r="AD4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -967,8 +979,11 @@
       <c r="AC5">
         <v>-1</v>
       </c>
+      <c r="AD5">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1056,8 +1071,11 @@
       <c r="AC6">
         <v>-1</v>
       </c>
+      <c r="AD6">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1145,8 +1163,11 @@
       <c r="AC7">
         <v>-1</v>
       </c>
+      <c r="AD7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1234,8 +1255,11 @@
       <c r="AC8">
         <v>-1</v>
       </c>
+      <c r="AD8">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1272,8 +1296,11 @@
       <c r="AC9">
         <v>-1</v>
       </c>
+      <c r="AD9">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1361,8 +1388,11 @@
       <c r="AC10">
         <v>-1</v>
       </c>
+      <c r="AD10">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1450,8 +1480,11 @@
       <c r="AC11">
         <v>-1</v>
       </c>
+      <c r="AD11">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1539,8 +1572,11 @@
       <c r="AC12">
         <v>-1</v>
       </c>
+      <c r="AD12">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1628,8 +1664,11 @@
       <c r="AC13">
         <v>1</v>
       </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1717,8 +1756,11 @@
       <c r="AC14">
         <v>-1</v>
       </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1806,8 +1848,11 @@
       <c r="AC15">
         <v>-1</v>
       </c>
+      <c r="AD15">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1892,8 +1937,11 @@
       <c r="AC16">
         <v>-2</v>
       </c>
+      <c r="AD16">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1978,8 +2026,11 @@
       <c r="AC17">
         <v>-1</v>
       </c>
+      <c r="AD17">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2067,8 +2118,11 @@
       <c r="AC18">
         <v>-1</v>
       </c>
+      <c r="AD18">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2147,8 +2201,11 @@
       <c r="Z19">
         <v>-1</v>
       </c>
+      <c r="AD19">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2233,8 +2290,11 @@
       <c r="AC20">
         <v>-1</v>
       </c>
+      <c r="AD20">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2322,8 +2382,11 @@
       <c r="AC21">
         <v>-1</v>
       </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2411,8 +2474,11 @@
       <c r="AC22">
         <v>-1</v>
       </c>
+      <c r="AD22">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2500,8 +2566,11 @@
       <c r="AC23">
         <v>0</v>
       </c>
+      <c r="AD23">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2589,8 +2658,11 @@
       <c r="AC24">
         <v>-1</v>
       </c>
+      <c r="AD24">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2675,8 +2747,11 @@
       <c r="AC25">
         <v>-2</v>
       </c>
+      <c r="AD25">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2720,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2764,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2778,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2819,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2886,11 +2961,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC25" sqref="AC25"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,10 +2973,10 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43749</v>
       </c>
@@ -2986,8 +3061,11 @@
       <c r="AC1" s="1">
         <v>44691</v>
       </c>
+      <c r="AD1" s="1">
+        <v>44726</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3075,8 +3153,11 @@
       <c r="AC2">
         <v>-1</v>
       </c>
+      <c r="AD2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3164,8 +3245,11 @@
       <c r="AC3">
         <v>-2</v>
       </c>
+      <c r="AD3">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3253,8 +3337,11 @@
       <c r="AC4">
         <v>-2</v>
       </c>
+      <c r="AD4">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3342,8 +3429,11 @@
       <c r="AC5">
         <v>-2</v>
       </c>
+      <c r="AD5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3431,8 +3521,11 @@
       <c r="AC6">
         <v>-2</v>
       </c>
+      <c r="AD6">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3520,8 +3613,11 @@
       <c r="AC7">
         <v>-1</v>
       </c>
+      <c r="AD7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3609,8 +3705,11 @@
       <c r="AC8">
         <v>-1</v>
       </c>
+      <c r="AD8">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3647,8 +3746,11 @@
       <c r="AC9">
         <v>-2</v>
       </c>
+      <c r="AD9">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3736,8 +3838,11 @@
       <c r="AC10">
         <v>-2</v>
       </c>
+      <c r="AD10">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3825,8 +3930,11 @@
       <c r="AC11">
         <v>-1</v>
       </c>
+      <c r="AD11">
+        <v>-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3914,8 +4022,11 @@
       <c r="AC12">
         <v>-1</v>
       </c>
+      <c r="AD12">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4003,8 +4114,11 @@
       <c r="AC13">
         <v>1</v>
       </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4092,8 +4206,11 @@
       <c r="AC14">
         <v>-2</v>
       </c>
+      <c r="AD14">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4181,8 +4298,11 @@
       <c r="AC15">
         <v>-2</v>
       </c>
+      <c r="AD15">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4267,8 +4387,11 @@
       <c r="AC16">
         <v>-2</v>
       </c>
+      <c r="AD16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4353,8 +4476,11 @@
       <c r="AC17">
         <v>-1</v>
       </c>
+      <c r="AD17">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4442,8 +4568,11 @@
       <c r="AC18">
         <v>0</v>
       </c>
+      <c r="AD18">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4522,8 +4651,11 @@
       <c r="Z19">
         <v>-2</v>
       </c>
+      <c r="AD19">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4608,8 +4740,11 @@
       <c r="AC20">
         <v>0</v>
       </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -4697,8 +4832,11 @@
       <c r="AC21">
         <v>-2</v>
       </c>
+      <c r="AD21">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4786,8 +4924,11 @@
       <c r="AC22">
         <v>-1</v>
       </c>
+      <c r="AD22">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4875,8 +5016,11 @@
       <c r="AC23">
         <v>-1</v>
       </c>
+      <c r="AD23">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4964,8 +5108,11 @@
       <c r="AC24">
         <v>-1</v>
       </c>
+      <c r="AD24">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -5050,8 +5197,11 @@
       <c r="AC25">
         <v>-1</v>
       </c>
+      <c r="AD25">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5095,7 +5245,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5136,7 +5286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -5150,7 +5300,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5191,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -5258,11 +5408,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AZ13"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ14" sqref="AZ14"/>
+      <selection pane="topRight" activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,10 +5421,10 @@
     <col min="2" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43070</v>
       </c>
@@ -5428,8 +5578,11 @@
       <c r="AZ1" s="1">
         <v>44691</v>
       </c>
+      <c r="BA1" s="1">
+        <v>44726</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5586,8 +5739,11 @@
       <c r="AZ2">
         <v>-1</v>
       </c>
+      <c r="BA2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5744,8 +5900,11 @@
       <c r="AZ3">
         <v>-1</v>
       </c>
+      <c r="BA3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5902,8 +6061,11 @@
       <c r="AZ4">
         <v>-1</v>
       </c>
+      <c r="BA4">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -6060,8 +6222,11 @@
       <c r="AZ5">
         <v>-1</v>
       </c>
+      <c r="BA5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -6218,8 +6383,11 @@
       <c r="AZ6">
         <v>-2</v>
       </c>
+      <c r="BA6">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -6376,8 +6544,11 @@
       <c r="AZ7">
         <v>-1</v>
       </c>
+      <c r="BA7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6535,8 +6706,11 @@
       <c r="AZ8">
         <v>-1</v>
       </c>
+      <c r="BA8">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6693,8 +6867,11 @@
       <c r="AZ9">
         <v>-1</v>
       </c>
+      <c r="BA9">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -6773,8 +6950,11 @@
       <c r="AZ10">
         <v>-1</v>
       </c>
+      <c r="BA10">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -6871,8 +7051,11 @@
       <c r="AZ11">
         <v>1</v>
       </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -6969,8 +7152,11 @@
       <c r="AZ12">
         <v>0</v>
       </c>
+      <c r="BA12">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -7030,6 +7216,9 @@
       </c>
       <c r="AZ13">
         <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
